--- a/User journeys.xlsx
+++ b/User journeys.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/codeclan/work_files/week_04/day_5/gym_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="View records" sheetId="2" r:id="rId1"/>
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="65">
   <si>
     <t>Persona's name</t>
   </si>
@@ -271,12 +271,6 @@
     <t>Step 9</t>
   </si>
   <si>
-    <t>Step 10</t>
-  </si>
-  <si>
-    <t>Step 11</t>
-  </si>
-  <si>
     <t>Goal</t>
   </si>
   <si>
@@ -434,6 +428,9 @@
   </si>
   <si>
     <t>Member successfully removed from class</t>
+  </si>
+  <si>
+    <t>New class and member successfully added.</t>
   </si>
 </sst>
 </file>
@@ -529,14 +526,14 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -823,7 +820,7 @@
   </sheetPr>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7:K9"/>
     </sheetView>
   </sheetViews>
@@ -842,19 +839,19 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="6" spans="1:11" ht="13" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
@@ -885,109 +882,109 @@
         <v>10</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>38</v>
+      <c r="G7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="115" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="K9" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1004,10 +1001,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1020,28 +1017,28 @@
     <col min="6" max="16384" width="14.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8"/>
-    </row>
-    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -1055,104 +1052,64 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="B7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="176" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="67" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="9" t="s">
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="176" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="111" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="F9" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1192,19 +1149,19 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
@@ -1220,64 +1177,64 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>47</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="185" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1317,19 +1274,19 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
@@ -1345,64 +1302,64 @@
         <v>5</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>53</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="159" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1440,19 +1397,19 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
@@ -1462,46 +1419,46 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="132" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1539,19 +1496,19 @@
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="8"/>
+      <c r="B3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10"/>
     </row>
     <row r="4" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="10"/>
     </row>
     <row r="6" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="B6" s="2" t="s">
@@ -1561,46 +1518,46 @@
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>65</v>
+        <v>12</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="10"/>
+      <c r="D9" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
